--- a/機能一覧表.xlsx
+++ b/機能一覧表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙 " sheetId="3" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>機能一覧表</t>
     <rPh sb="0" eb="2">
@@ -385,13 +385,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログアウト機能</t>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -406,10 +399,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>アカウント削除</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -424,10 +413,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ログアウト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>検索したアカウントの論理削除</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -448,10 +433,6 @@
     <rPh sb="13" eb="15">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ログインしているユーザーのログアウト</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -857,6 +838,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -911,18 +904,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -966,7 +947,7 @@
         <xdr:cNvPr id="12" name="Group 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E516048B-A480-44BE-A3CC-9E99ADBCBAFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E516048B-A480-44BE-A3CC-9E99ADBCBAFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -987,7 +968,7 @@
           <xdr:cNvPr id="13" name="Rectangle 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0EFDC1-063E-4F29-8AF4-9DC6EFE81BC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D0EFDC1-063E-4F29-8AF4-9DC6EFE81BC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1040,7 +1021,7 @@
           <xdr:cNvPr id="14" name="Rectangle 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B81A4DE-4672-4B30-B976-CC899F4BA4AD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B81A4DE-4672-4B30-B976-CC899F4BA4AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1400,7 +1381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -1798,20 +1779,20 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="35"/>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -1830,26 +1811,26 @@
     </row>
     <row r="9" spans="1:176" ht="13.05" customHeight="1">
       <c r="A9" s="23"/>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="50" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="52"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
@@ -1868,22 +1849,22 @@
     </row>
     <row r="10" spans="1:176" ht="13.05" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="63"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
@@ -2098,18 +2079,18 @@
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
       <c r="K17" s="24"/>
-      <c r="L17" s="45" t="s">
+      <c r="L17" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
       <c r="V17" s="24"/>
       <c r="W17" s="24"/>
       <c r="AA17" s="24"/>
@@ -2131,16 +2112,16 @@
       <c r="I18" s="24"/>
       <c r="J18" s="24"/>
       <c r="K18" s="24"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
       <c r="V18" s="24"/>
       <c r="W18" s="24"/>
       <c r="AA18" s="24"/>
@@ -2162,16 +2143,16 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="24"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
       <c r="V19" s="24"/>
       <c r="W19" s="24"/>
       <c r="X19" s="24"/>
@@ -2403,12 +2384,12 @@
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="47">
+      <c r="F26" s="55">
         <v>45448</v>
       </c>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="57"/>
       <c r="J26" s="10" t="s">
         <v>10</v>
       </c>
@@ -3038,8 +3019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -3053,37 +3034,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:173" ht="12.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
     </row>
     <row r="2" spans="1:173" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -3117,10 +3098,10 @@
         <v>2</v>
       </c>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="57" t="s">
+      <c r="AB2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" s="58"/>
+      <c r="AC2" s="66"/>
     </row>
     <row r="3" spans="1:173" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -3150,53 +3131,53 @@
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
-      <c r="Z3" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="59" t="s">
+      <c r="Z3" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AC3" s="60"/>
+      <c r="AC3" s="68"/>
     </row>
     <row r="4" spans="1:173" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="61" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="61" t="s">
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="63"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="71"/>
       <c r="AD4" s="7"/>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -3349,8 +3330,8 @@
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="11"/>
@@ -3387,7 +3368,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="66"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
@@ -3424,7 +3405,7 @@
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="36" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="30"/>
@@ -3461,20 +3442,20 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="67"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
-      <c r="I8" s="70"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K8" s="14"/>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="70"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -3486,9 +3467,9 @@
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
     </row>
     <row r="9" spans="1:173" ht="12.75" customHeight="1">
       <c r="A9" s="29"/>
@@ -3496,7 +3477,7 @@
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="64"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="32"/>
@@ -3528,8 +3509,8 @@
       <c r="A10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="69"/>
-      <c r="F10" s="66" t="s">
+      <c r="E10" s="41"/>
+      <c r="F10" s="38" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="11"/>
@@ -3568,7 +3549,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="11"/>
@@ -3600,14 +3581,14 @@
       <c r="AC11" s="12"/>
     </row>
     <row r="12" spans="1:173" ht="12.75" customHeight="1">
-      <c r="E12" s="69"/>
-      <c r="I12" s="71"/>
+      <c r="E12" s="41"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="71"/>
+        <v>52</v>
+      </c>
+      <c r="O12" s="43"/>
       <c r="P12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:173" ht="12.75" customHeight="1">
@@ -3618,14 +3599,14 @@
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
-      <c r="F13" s="66" t="s">
-        <v>44</v>
+      <c r="F13" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="12"/>
       <c r="J13" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3633,7 +3614,7 @@
       <c r="N13" s="11"/>
       <c r="O13" s="12"/>
       <c r="P13" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
@@ -3650,14 +3631,14 @@
       <c r="AC13" s="12"/>
     </row>
     <row r="14" spans="1:173" ht="12.75" customHeight="1">
-      <c r="E14" s="69"/>
-      <c r="I14" s="71"/>
+      <c r="E14" s="41"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="71"/>
+        <v>54</v>
+      </c>
+      <c r="O14" s="43"/>
       <c r="P14" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:173" ht="12.75" customHeight="1">
@@ -3668,14 +3649,14 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
-      <c r="F15" s="66" t="s">
-        <v>45</v>
+      <c r="F15" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="12"/>
       <c r="J15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -3683,7 +3664,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="12"/>
       <c r="P15" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
@@ -3700,41 +3681,33 @@
       <c r="AC15" s="12"/>
     </row>
     <row r="16" spans="1:173" ht="12.75" customHeight="1">
-      <c r="E16" s="69"/>
-      <c r="I16" s="71"/>
+      <c r="E16" s="41"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="71"/>
+        <v>54</v>
+      </c>
+      <c r="O16" s="43"/>
       <c r="P16" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="12.75" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="66" t="s">
-        <v>46</v>
-      </c>
+      <c r="F17" s="38"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="12"/>
-      <c r="J17" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
       <c r="O17" s="12"/>
-      <c r="P17" s="14" t="s">
-        <v>52</v>
-      </c>
+      <c r="P17" s="14"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
